--- a/database/EscrivaHeadwater.xlsx
+++ b/database/EscrivaHeadwater.xlsx
@@ -1403,7 +1403,7 @@
     <t>betharrami</t>
   </si>
   <si>
-    <t>Psychrodromus betharrami (Baltanas et al., 1993)</t>
+    <t>Psychrodromus betharrami (Danielopol &amp; Baltanas, 1993)</t>
   </si>
   <si>
     <t>Heterocypris</t>
